--- a/SPPSApi/Doc/Template/FS0403.xlsx
+++ b/SPPSApi/Doc/Template/FS0403.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627DB1ED-DAB3-4491-9CC8-7E69B4E475B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE16FBB-9F52-4554-A3DF-4C9C43858290}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4728" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>变更号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,28 +357,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0403.xlsx
+++ b/SPPSApi/Doc/Template/FS0403.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE16FBB-9F52-4554-A3DF-4C9C43858290}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627DB1ED-DAB3-4491-9CC8-7E69B4E475B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4728" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>变更号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,24 +361,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0403.xlsx
+++ b/SPPSApi/Doc/Template/FS0403.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627DB1ED-DAB3-4491-9CC8-7E69B4E475B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507BE278-1672-4356-BF77-C4052C171068}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>变更号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,28 +357,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
